--- a/InterfaceAuto/data/Risk_assess/Risk_assess.xlsx
+++ b/InterfaceAuto/data/Risk_assess/Risk_assess.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8E2883-4324-4108-96AA-92E6D4C101E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9596B40-973E-4CA9-8DA9-FA11F9EBFB78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11445" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13080" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flow_o" sheetId="1" r:id="rId1"/>
     <sheet name="flow" sheetId="2" r:id="rId2"/>
     <sheet name="android" sheetId="3" r:id="rId3"/>
+    <sheet name="docdispose" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +322,29 @@
   <si>
     <t>%plaintiff_info%[=]%plaintiff_name%，%plaintiff_sex%，%plaintiff_ethnic%，%plaintiff_cellphone%，%plaintiff_birth%，%plaintiff_ID_number%，%plaintiff_address%
 %defendant_info%[=]%defendant_name%，%defendant_sex%，%defendant_ethnic%，%defendant_cellphone%，%defendant_birth%，%defendant_ID_number%，%defendant_address%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawapply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">word=dumps{"apply_name":"周某","apply_sex":"男","apply_education":"研究生","apply_crowd":"律师","cause_action":"劳动争议纠纷","apply_race":"山西省","apply_card":"412822199511243073","apply_domicile_place":"南京","apply_address":"南京","apply_postal_code":"453500","apply_mobile":"15538905670","apply_workspace":"江宁区","agent_name":"徐远","agent_phone":"15538905670","agent_type":"法定代理人","description":"原告XX与被告原系夫妻关系，因感情破裂双方于XXXX年XX月XX日办理了离婚。离婚时，双方约定原告随XX生活，由被告每年承担抚养费XXXX元。然而，约定的数额已远远低于当前的生活水平，原告多次与被告协商要求其增加抚养费均被拒绝。","request_items":"劳动者请求支付违法解除劳动合同的经济赔偿金,请求被告承担诉讼费。费用：2000元人民币"}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawopinion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">law_comment="根据相关法律的规定，申请人申请的政府信息应当是行政机关在履行职责过程中制作或者获取的，以一定形式记录、保存的信息。"
+action_comment="金融借款纠纷发生后，经协商不成时，可以不经人民调解委员会调解，直接向人民法院提起诉讼。经过人民调解委员会调解，达不成协议的，任何一方也有权向人民法院起诉。您可以根据我们“我要诉讼”中提供的建议搜集相关证据材料，生成起诉状到法院进行立案。"
+law=dumps[{"title":"《中华人民共和国合同法》第三十六条","content":"男女一方要求离婚的，可由有关部门进行调解或直接向人民法院提出离婚诉讼。"},{"title":"《中华人民共和国合同法》第三十六条","content":"男女一方要求离婚的，可由有关部门进行调解或直接向人民法院提出离婚诉讼。"}]
+cause=dumps["中华人民共和国合同法","男女一方要求离婚的","可由有关部门进行调解或直接向人民法院提出离婚诉"]
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,15 +1057,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95C7836-693C-4C74-94CF-F78DA0668BAA}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="64.75" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="88" customWidth="1"/>
     <col min="6" max="6" width="32.5" customWidth="1"/>
   </cols>
@@ -1068,7 +1092,7 @@
     </row>
     <row r="2" spans="1:6" ht="351" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -1085,7 +1109,7 @@
     </row>
     <row r="3" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -1095,6 +1119,68 @@
       </c>
       <c r="F3" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E72A5E-3F46-4B05-9304-A462A4F84088}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="63.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/data/Risk_assess/Risk_assess.xlsx
+++ b/InterfaceAuto/data/Risk_assess/Risk_assess.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9596B40-973E-4CA9-8DA9-FA11F9EBFB78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5167D63B-25D5-4304-BE61-EC417E9C9604}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14715" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="flow_o" sheetId="1" r:id="rId1"/>
-    <sheet name="flow" sheetId="2" r:id="rId2"/>
-    <sheet name="android" sheetId="3" r:id="rId3"/>
-    <sheet name="docdispose" sheetId="4" r:id="rId4"/>
+    <sheet name="znys" sheetId="6" r:id="rId1"/>
+    <sheet name="android" sheetId="3" r:id="rId2"/>
+    <sheet name="docdispose" sheetId="4" r:id="rId3"/>
+    <sheet name="api" sheetId="7" r:id="rId4"/>
+    <sheet name="flow" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
   <si>
     <t>Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,124 +114,7 @@
     <t>case4</t>
   </si>
   <si>
-    <t xml:space="preserve">
-劳动争议案由-追索劳动报酬纠纷-1轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-劳动争议案由-追索劳动报酬纠纷-2轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-劳动争议案由-追索劳动报酬纠纷-3轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>case5</t>
-  </si>
-  <si>
-    <t>tags=dumps["&lt;case3,Res,data.questions.choice_tags[dict_list0_list0]&gt;"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags=dumps["&lt;case4,Res,data.questions.choice_tags[dict_list0_list1]&gt;"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cause_id=&lt;case1,Input,cause_id&gt;
-subject_id=&lt;case2,Input,subject_id&gt;
-answers=[]
-qid=&lt;case4,Res,data.questions.id[dict_list0_dict]&gt;
-record_id=&lt;case4,Res,data.record_id&gt;
-tags=%tags%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cause_id=&lt;case1,Input,cause_id&gt;
-subject_id=&lt;case2,Input,subject_id&gt;
-answers=[]
-qid=&lt;case3,Res,data.questions.id[dict_list0_dict]&gt;
-record_id=&lt;case3,Res,data.record_id&gt;
-tags=%tags%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-劳动争议案由-追索劳动报酬纠纷-4轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags=dumps["&lt;case5,Res,data.questions.choice_tags[dict_list0_list1]&gt;"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cause_id=&lt;case1,Input,cause_id&gt;
-subject_id=&lt;case2,Input,subject_id&gt;
-answers=[]
-qid=&lt;case5,Res,data.questions.id[dict_list0_dict]&gt;
-record_id=&lt;case5,Res,data.record_id&gt;
-tags=%tags%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-劳动争议案由-追索劳动报酬纠纷-5轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case7</t>
-  </si>
-  <si>
-    <t>tags=dumps["&lt;case6,Res,data.questions.choice_tags[dict_list0_list1]&gt;"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cause_id=&lt;case1,Input,cause_id&gt;
-subject_id=&lt;case2,Input,subject_id&gt;
-answers=[]
-qid=&lt;case6,Res,data.questions.id[dict_list0_dict]&gt;
-record_id=&lt;case6,Res,data.record_id&gt;
-tags=%tags%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags=dumps["&lt;case7,Res,data.questions.choice_tags[dict_list0_list1]&gt;"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cause_id=&lt;case1,Input,cause_id&gt;
-subject_id=&lt;case2,Input,subject_id&gt;
-answers=[]
-qid=&lt;case7,Res,data.questions.id[dict_list0_dict]&gt;
-record_id=&lt;case7,Res,data.record_id&gt;
-tags=%tags%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags=dumps["&lt;case8,Res,data.questions.choice_tags[dict_list0_list1]&gt;"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cause_id=&lt;case1,Input,cause_id&gt;
-subject_id=&lt;case2,Input,subject_id&gt;
-answers=[]
-qid=&lt;case8,Res,data.questions.id[dict_list0_dict]&gt;
-record_id=&lt;case8,Res,data.record_id&gt;
-tags=%tags%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>znys</t>
@@ -262,18 +146,11 @@
     <t>cost</t>
   </si>
   <si>
-    <t>ZNYS_SSS_Handler</t>
-  </si>
-  <si>
     <t>Run</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -332,11 +209,6 @@
     <t>lawapply</t>
   </si>
   <si>
-    <t xml:space="preserve">word=dumps{"apply_name":"周某","apply_sex":"男","apply_education":"研究生","apply_crowd":"律师","cause_action":"劳动争议纠纷","apply_race":"山西省","apply_card":"412822199511243073","apply_domicile_place":"南京","apply_address":"南京","apply_postal_code":"453500","apply_mobile":"15538905670","apply_workspace":"江宁区","agent_name":"徐远","agent_phone":"15538905670","agent_type":"法定代理人","description":"原告XX与被告原系夫妻关系，因感情破裂双方于XXXX年XX月XX日办理了离婚。离婚时，双方约定原告随XX生活，由被告每年承担抚养费XXXX元。然而，约定的数额已远远低于当前的生活水平，原告多次与被告协商要求其增加抚养费均被拒绝。","request_items":"劳动者请求支付违法解除劳动合同的经济赔偿金,请求被告承担诉讼费。费用：2000元人民币"}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lawopinion</t>
   </si>
   <si>
@@ -345,6 +217,177 @@
 law=dumps[{"title":"《中华人民共和国合同法》第三十六条","content":"男女一方要求离婚的，可由有关部门进行调解或直接向人民法院提出离婚诉讼。"},{"title":"《中华人民共和国合同法》第三十六条","content":"男女一方要求离婚的，可由有关部门进行调解或直接向人民法院提出离婚诉讼。"}]
 cause=dumps["中华人民共和国合同法","男女一方要求离婚的","可由有关部门进行调解或直接向人民法院提出离婚诉"]
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riskassessment</t>
+  </si>
+  <si>
+    <t>legalFare=23
+mediateFare=45
+mediateTime=179
+trialTime=206
+诉讼=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalFare=23
+mediateFare=45
+mediateTime=179
+trialTime=206
+tiaojie=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printpic</t>
+  </si>
+  <si>
+    <t>诉讼流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调解流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=1
+materials=（1）人民调解申请书；↵（2）人民调解申请人身份证明，如身份证、户口本等；↵（3）被申请调解人身份信息；↵（4）相关证据材料等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=2
+materials=（1）人民调解申请书；↵（2）人民调解申请人身份证明，如身份证、户口本等；↵（3）被申请调解人身份信息；↵（4）相关证据材料等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indictment</t>
+  </si>
+  <si>
+    <t>yg=dumps{"name":"1","sex":"19", "family":"工农区","address":"南京","phone":"15538905670"}
+ygdlr=dumps{ "name":"1", "sex":"男", "work":"开发工程师","lsphone":"15538905670"}
+bg=dumps{ "name":"1", "sex":"19", "family":"工农区", "address":"南京","phone":"15538905670"}
+bgdlr=dumps{ "name":"1", "sex":"男", "work":"开发工程师","lsphone":"15538905670"}
+zz=主张1；主张2
+ssly=事实跟理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZNYS_SSS_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Law_Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawcomment=多次起诉离婚说明经劝说调解后双方已无和好的可能，夫妻感情确已破裂，法院判决离婚的可能性会大大增加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadLawComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailLawComHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awcomment=多次起诉离婚说明经劝说调解后双方已无和好的可能，夫妻感情确已破裂，法院判决离婚的可能性会大大增加。
+to_mail=1261589***qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadIndictment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indictment=起诉状内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word=dumps{"apply_name":"周某","apply_sex":"男","apply_education":"研究生","apply_crowd":"律师","cause_action":"劳动争议纠纷","apply_race":"山西省","apply_card":"412822199511243073","apply_domicile_place":"南京","apply_address":"南京","apply_postal_code":"453500","apply_mobile":"15538905670","apply_workspace":"江宁区","agent_name":"徐远","agent_phone":"15538905670","agent_type":"法定代理人","description":"原告XX与被告原系夫妻关系，因感情破裂双方于XXXX年XX月XX日办理了离婚。离婚时，双方约定原告随XX生活，由被告每年承担抚养费XXXX元。然而，约定的数额已远远低于当前的生活水平，原告多次与被告协商要求其增加抚养费均被拒绝。","request_items":"劳动者请求支付违法解除劳动合同的经济赔偿金,请求被告承担诉讼费。费用：2000元人民币"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qid=9e4eb75afe1a113eb4e52d6408009548</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailIndictmentHandler</t>
+  </si>
+  <si>
+    <t>Indictment=起诉状内容
+to_mail=1261589***qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_id=c54d0a22c584c35ca08185719a5ae4f3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>similarCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qid=9e4eb75afe1a113eb4e52d6408009548</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qId=9e4eb75afe1a113eb4e52d6408009548
+pId=19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qId=9e4eb75afe1a113eb4e52d6408009548
+pId=14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qId=9e4eb75afe1a113eb4e52d6408009548
+pId=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qId=9e4eb75afe1a113eb4e52d6408009548
+pId=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qId=9e4eb75afe1a113eb4e52d6408009548
+pId=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qId=9e4eb75afe1a113eb4e52d6408009548
+pId=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,30 +715,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A78C18-396A-4549-9DE4-BBE6E3B1A0BC}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="57" customWidth="1"/>
-    <col min="6" max="6" width="35.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="2.75" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="84.125" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -707,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -715,10 +757,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -733,12 +775,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -753,18 +795,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
@@ -773,124 +815,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -901,151 +837,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DD7BBD-E17F-42C1-B8B0-6F9EA2CEADFA}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95C7836-693C-4C74-94CF-F78DA0668BAA}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="2.75" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="84.125" customWidth="1"/>
-    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="88" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
+    </row>
+    <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1056,95 +977,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95C7836-693C-4C74-94CF-F78DA0668BAA}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E72A5E-3F46-4B05-9304-A462A4F84088}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="88" customWidth="1"/>
-    <col min="6" max="6" width="32.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="351" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E72A5E-3F46-4B05-9304-A462A4F84088}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1154,7 +991,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1166,7 +1003,7 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1174,17 +1011,355 @@
     </row>
     <row r="2" spans="1:6" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4112208-4C53-4CE3-8330-A4442E490476}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DD7BBD-E17F-42C1-B8B0-6F9EA2CEADFA}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="2.75" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="84.125" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/InterfaceAuto/data/Risk_assess/Risk_assess.xlsx
+++ b/InterfaceAuto/data/Risk_assess/Risk_assess.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5167D63B-25D5-4304-BE61-EC417E9C9604}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476BF6E4-6FBC-4A79-9AC4-2B1B2EAB169D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26160" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="znys" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
   <si>
     <t>Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,61 +333,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qid=9e4eb75afe1a113eb4e52d6408009548</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qId=9e4eb75afe1a113eb4e52d6408009548
+    <t>湖南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url=http://61.155.9.140:6094/api/prejudge/similarCase
+qId=9e4eb75afe1a113eb4e52d6408009548
 pId=19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qId=9e4eb75afe1a113eb4e52d6408009548
+    <t>Url=http://61.155.9.140:6094/api/prejudge/similarCase
+qId=9e4eb75afe1a113eb4e52d6408009548
 pId=14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qId=9e4eb75afe1a113eb4e52d6408009548
+    <t>Url=http://61.155.9.140:6094/api/prejudge/similarCase
+qId=9e4eb75afe1a113eb4e52d6408009548
 pId=9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>湖南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qId=9e4eb75afe1a113eb4e52d6408009548
+    <t>Url=http://61.155.9.140:6094/api/prejudge/similarCase
+qId=9e4eb75afe1a113eb4e52d6408009548
 pId=3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>江苏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qId=9e4eb75afe1a113eb4e52d6408009548
+    <t>Url=http://61.155.9.140:6094/api/prejudge/similarCase
+qId=9e4eb75afe1a113eb4e52d6408009548
 pId=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qId=9e4eb75afe1a113eb4e52d6408009548
+    <t>Url=http://61.155.9.140:6094/api/prejudge/similarCase
+qId=9e4eb75afe1a113eb4e52d6408009548
 pId=50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全国</t>
+    <t>case6</t>
+  </si>
+  <si>
+    <t>case7</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,13 +1107,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4112208-4C53-4CE3-8330-A4442E490476}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1108,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -1122,88 +1139,88 @@
     </row>
     <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -1212,18 +1229,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>68</v>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1231,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DD7BBD-E17F-42C1-B8B0-6F9EA2CEADFA}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/InterfaceAuto/data/Risk_assess/Risk_assess.xlsx
+++ b/InterfaceAuto/data/Risk_assess/Risk_assess.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476BF6E4-6FBC-4A79-9AC4-2B1B2EAB169D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBB1929-ABA9-4808-8BA1-BCA34A200D5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26160" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27795" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="znys" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
   <si>
     <t>Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,53 +357,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Url=http://61.155.9.140:6094/api/prejudge/similarCase
-qId=9e4eb75afe1a113eb4e52d6408009548
+    <t>case6</t>
+  </si>
+  <si>
+    <t>case7</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Url=http://61.155.9.140:6094/api/prejudge/similarCase
-qId=9e4eb75afe1a113eb4e52d6408009548
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Url=http://61.155.9.140:6094/api/prejudge/similarCase
-qId=9e4eb75afe1a113eb4e52d6408009548
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Url=http://61.155.9.140:6094/api/prejudge/similarCase
-qId=9e4eb75afe1a113eb4e52d6408009548
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Url=http://61.155.9.140:6094/api/prejudge/similarCase
-qId=9e4eb75afe1a113eb4e52d6408009548
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Url=http://61.155.9.140:6094/api/prejudge/similarCase
-qId=9e4eb75afe1a113eb4e52d6408009548
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case6</t>
-  </si>
-  <si>
-    <t>case7</t>
-  </si>
-  <si>
-    <t>用例描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case1</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/cost
+qId=342a184d07e511f15f22ab348bad1bbf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -1224,18 +1224,18 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
